--- a/Finflux Automation Excels/Login/Login.xlsx
+++ b/Finflux Automation Excels/Login/Login.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Login\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,20 +13,24 @@
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Verify" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Branchmanager" sheetId="4" r:id="rId2"/>
+    <sheet name="Verify" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>Branchmanager</t>
   </si>
   <si>
     <t>conflux</t>
@@ -422,17 +426,20 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -450,6 +457,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -463,7 +505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
